--- a/UCD Template_ Prompt Library_History.xlsx
+++ b/UCD Template_ Prompt Library_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferlebrun/Desktop/UCD_GenAI_UX_PerryGrant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E7C3DC-202F-1A42-9175-2D880B5DF303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3263F387-C093-A348-95A6-CA29EBEDA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="700" windowWidth="22940" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
